--- a/docs/DataDictonary.xlsx
+++ b/docs/DataDictonary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gam\Учёба\4 курс\2 семестр\УП\Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE29A123-53F8-426A-B02A-D92501509A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18B78AD-5227-4DC8-8E68-B25EFDBAD245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -404,14 +404,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,31 +709,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -826,13 +826,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -884,13 +884,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -940,13 +940,13 @@
       <c r="E22" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -996,13 +996,13 @@
       <c r="E28" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1054,13 +1054,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1131,13 +1131,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1189,13 +1189,13 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1247,13 +1247,13 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -1423,13 +1423,13 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -1493,7 +1493,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>58</v>
@@ -1517,13 +1517,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -1594,13 +1594,13 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -1729,13 +1729,13 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -1935,11 +1935,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="A78:E78"/>
     <mergeCell ref="A85:E85"/>
@@ -1950,6 +1945,11 @@
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
